--- a/modeling/results/results_attr_text_emb.xlsx
+++ b/modeling/results/results_attr_text_emb.xlsx
@@ -49,17 +49,20 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
+    <t>MLPClassifier(batch_size=128, early_stopping=True, hidden_layer_sizes=(32, 32),
+              learning_rate_init=0.01, max_iter=512, random_state=42)</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-06)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(criterion='entropy', max_depth=16, max_features='sqrt',
+                       max_leaf_nodes=256, n_estimators=64, n_jobs=8,
+                       random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=4, cache_size=64, coef0=0.01, decision_function_shape='ovo', degree=1,
+    gamma=0.01, kernel='poly', max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -454,13 +457,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7545219638242894</v>
+        <v>0.7597911227154047</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6600649080469335</v>
+        <v>0.6297183690626313</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -474,13 +477,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.268733850129199</v>
+        <v>0.2637075718015666</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2360900892103593</v>
+        <v>0.2309894053315106</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -494,13 +497,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7545219638242894</v>
+        <v>0.7806788511749347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5346968220419425</v>
+        <v>0.590520313613685</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -514,13 +517,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7751937984496124</v>
+        <v>0.7754569190600522</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6268660024602972</v>
+        <v>0.6828004622496149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -534,13 +537,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7467700258397932</v>
+        <v>0.7467362924281984</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4275147928994083</v>
+        <v>0.4275037369207773</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr_text_emb.xlsx
+++ b/modeling/results/results_attr_text_emb.xlsx
@@ -49,20 +49,17 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(batch_size=128, early_stopping=True, hidden_layer_sizes=(32, 32),
-              learning_rate_init=0.01, max_iter=512, random_state=42)</t>
+    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
+              random_state=42)</t>
   </si>
   <si>
     <t>GaussianNB(var_smoothing=1e-06)</t>
   </si>
   <si>
-    <t>RandomForestClassifier(criterion='entropy', max_depth=16, max_features='sqrt',
-                       max_leaf_nodes=256, n_estimators=64, n_jobs=8,
-                       random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=4, cache_size=64, coef0=0.01, decision_function_shape='ovo', degree=1,
-    gamma=0.01, kernel='poly', max_iter=1024, random_state=42)</t>
+    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -457,13 +454,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7597911227154047</v>
+        <v>0.7630208333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6297183690626313</v>
+        <v>0.6090181818181818</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -477,13 +474,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.2637075718015666</v>
+        <v>0.2942708333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2309894053315106</v>
+        <v>0.2692904539549907</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -497,13 +494,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7806788511749347</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.590520313613685</v>
+        <v>0.5517433893315739</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -517,13 +514,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7754569190600522</v>
+        <v>0.7682291666666666</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6828004622496149</v>
+        <v>0.5634524250514135</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -537,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7467362924281984</v>
+        <v>0.7473958333333334</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4275037369207773</v>
+        <v>0.4277198211624441</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr_text_emb.xlsx
+++ b/modeling/results/results_attr_text_emb.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Model details</t>
+    <t>Model Details</t>
   </si>
   <si>
     <t>Mean Acc</t>
@@ -34,6 +34,9 @@
     <t>Std F1</t>
   </si>
   <si>
+    <t>Conf Matrix</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -49,20 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-06)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>{'learning_rate_init': 0.01}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-07}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'decision_function_shape': 'ovo'}</t>
   </si>
   <si>
     <t>Majority</t>
+  </si>
+  <si>
+    <t>[array([[224,  62],
+       [ 38,  58]])]</t>
+  </si>
+  <si>
+    <t>[array([[  3, 283],
+       [  2,  94]])]</t>
+  </si>
+  <si>
+    <t>[array([[278,   8],
+       [ 79,  17]])]</t>
+  </si>
+  <si>
+    <t>[array([[275,  11],
+       [ 78,  18]])]</t>
+  </si>
+  <si>
+    <t>[array([[286,   0],
+       [ 96,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -420,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,105 +467,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0.7382198952879581</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.6772776426061098</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.2539267015706806</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.2090407794075979</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.7722513089005235</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5728442347981441</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.7670157068062827</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.574359937402191</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.7630208333333334</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.6090181818181818</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.2942708333333333</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2692904539549907</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.7604166666666666</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.5517433893315739</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.7682291666666666</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.5634524250514135</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7473958333333334</v>
+        <v>0.7486910994764397</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4277198211624441</v>
+        <v>0.4281437125748503</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/results_attr_text_emb.xlsx
+++ b/modeling/results/results_attr_text_emb.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'learning_rate_init': 0.01}</t>
-  </si>
-  <si>
-    <t>{'var_smoothing': 1e-07}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'decision_function_shape': 'ovo'}</t>
+    <t>{'activation': 'relu', 'batch_size': 32, 'hidden_layer_sizes': (32, 32, 32), 'learning_rate': 'adaptive', 'learning_rate_init': 0.1, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-06}</t>
+  </si>
+  <si>
+    <t>{'criterion': 'entropy', 'max_depth': 16, 'max_features': 'sqrt', 'max_leaf_nodes': 128, 'n_estimators': 64}</t>
+  </si>
+  <si>
+    <t>{'C': 32, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[224,  62],
-       [ 38,  58]])]</t>
-  </si>
-  <si>
-    <t>[array([[  3, 283],
-       [  2,  94]])]</t>
-  </si>
-  <si>
-    <t>[array([[278,   8],
-       [ 79,  17]])]</t>
-  </si>
-  <si>
-    <t>[array([[275,  11],
-       [ 78,  18]])]</t>
-  </si>
-  <si>
-    <t>[array([[286,   0],
-       [ 96,   0]])]</t>
+    <t>[array([[261,  29],
+       [ 55,  43]])]</t>
+  </si>
+  <si>
+    <t>[array([[  8, 282],
+       [  6,  92]])]</t>
+  </si>
+  <si>
+    <t>[array([[279,  11],
+       [ 75,  23]])]</t>
+  </si>
+  <si>
+    <t>[array([[249,  41],
+       [ 64,  34]])]</t>
+  </si>
+  <si>
+    <t>[array([[290,   0],
+       [ 98,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7382198952879581</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6772776426061098</v>
+        <v>0.6836342457775189</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.2539267015706806</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2090407794075979</v>
+        <v>0.2212310437109724</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7722513089005235</v>
+        <v>0.7783505154639175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5728442347981441</v>
+        <v>0.6074722379070205</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7670157068062827</v>
+        <v>0.729381443298969</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.574359937402191</v>
+        <v>0.609467115290599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7486910994764397</v>
+        <v>0.7474226804123711</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4281437125748503</v>
+        <v>0.4277286135693215</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr_text_emb.xlsx
+++ b/modeling/results/results_attr_text_emb.xlsx
@@ -52,38 +52,38 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'activation': 'relu', 'batch_size': 32, 'hidden_layer_sizes': (32, 32, 32), 'learning_rate': 'adaptive', 'learning_rate_init': 0.1, 'solver': 'sgd'}</t>
+    <t>{'activation': 'tanh', 'batch_size': 64, 'hidden_layer_sizes': (64, 64, 64, 64), 'learning_rate': 'adaptive', 'learning_rate_init': 0.1, 'solver': 'sgd'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-06}</t>
   </si>
   <si>
-    <t>{'criterion': 'entropy', 'max_depth': 16, 'max_features': 'sqrt', 'max_leaf_nodes': 128, 'n_estimators': 64}</t>
-  </si>
-  <si>
-    <t>{'C': 32, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+    <t>{'criterion': 'entropy', 'max_depth': 32, 'max_features': 'sqrt', 'max_leaf_nodes': 128, 'n_estimators': 64}</t>
+  </si>
+  <si>
+    <t>{'C': 8, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[261,  29],
-       [ 55,  43]])]</t>
-  </si>
-  <si>
-    <t>[array([[  8, 282],
-       [  6,  92]])]</t>
-  </si>
-  <si>
-    <t>[array([[279,  11],
-       [ 75,  23]])]</t>
-  </si>
-  <si>
-    <t>[array([[249,  41],
-       [ 64,  34]])]</t>
-  </si>
-  <si>
-    <t>[array([[290,   0],
+    <t>[array([[241,  44],
+       [ 47,  51]])]</t>
+  </si>
+  <si>
+    <t>[array([[  7, 278],
+       [  1,  97]])]</t>
+  </si>
+  <si>
+    <t>[array([[275,  10],
+       [ 76,  22]])]</t>
+  </si>
+  <si>
+    <t>[array([[261,  24],
+       [ 59,  39]])]</t>
+  </si>
+  <si>
+    <t>[array([[285,   0],
        [ 98,   0]])]</t>
   </si>
 </sst>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7835051546391752</v>
+        <v>0.762402088772846</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6836342457775189</v>
+        <v>0.6848420729005598</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.2577319587628866</v>
+        <v>0.2715404699738904</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2212310437109724</v>
+        <v>0.2289647807546053</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7783505154639175</v>
+        <v>0.7754569190600522</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6074722379070205</v>
+        <v>0.6016207063376875</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.729381443298969</v>
+        <v>0.783289817232376</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.609467115290599</v>
+        <v>0.6736409835224064</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7474226804123711</v>
+        <v>0.7441253263707572</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4277286135693215</v>
+        <v>0.4266467065868264</v>
       </c>
       <c r="F6">
         <v>0</v>
